--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C67C40C-DEB7-4A58-AE46-7E963B0B07CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3AD190-58E2-44CA-8336-7E4B6D33CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="147">
   <si>
     <t>SKY AIRCRAFT B62694 LIMITED</t>
   </si>
@@ -435,27 +435,6 @@
   </si>
   <si>
     <t>thomas</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205977-8B1E16BD5FBC3E6BB78277873CD919D8/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205978-BE098948D946AC701D8FAD95F3C3B418/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205979-85EFC9A3D9C1F37D124EDC55D95F8A4C/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205980-C2C24EADB3ABFF498E5B76E300268230/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205981-BB3930AD283FEDF485E53F926CACB922/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205982-9FFF1E4745101E94B219C8CFDB3AE75D/all.pdf</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/closing-pdf/205983-008FF9E5149021274C5E613EF009FD1F/all.pdf</t>
   </si>
   <si>
     <t>santest1</t>
@@ -839,10 +818,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -850,10 +829,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -861,10 +840,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -872,10 +851,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -883,10 +862,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -919,7 +898,7 @@
         <v>123108</v>
       </c>
       <c r="V1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -930,7 +909,7 @@
         <v>153678</v>
       </c>
       <c r="V2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -941,7 +920,7 @@
         <v>123108</v>
       </c>
       <c r="V3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -958,7 +937,7 @@
         <v>176789</v>
       </c>
       <c r="V4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -966,7 +945,7 @@
         <v>129878</v>
       </c>
       <c r="V5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -974,7 +953,7 @@
         <v>159878</v>
       </c>
       <c r="V6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -982,7 +961,7 @@
         <v>567677</v>
       </c>
       <c r="V7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1016,10 +995,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1042,10 +1021,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
@@ -1062,10 +1041,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>122</v>
@@ -1088,10 +1067,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>121</v>
@@ -1108,10 +1087,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>122</v>
@@ -1134,10 +1113,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1154,10 +1133,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1650,7 +1629,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
@@ -1658,7 +1637,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1666,7 +1645,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1743,7 +1722,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>22</v>
@@ -1754,7 +1733,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -1781,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CA2F49-49B6-4FD2-A53F-7D7A78264C03}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="G1:V1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,7 +1877,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,15 +2034,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C8A602-BF86-4836-AB42-E1919FCFFEB0}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="V1" sqref="E1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>172234</v>
       </c>
@@ -2073,33 +2052,24 @@
       <c r="C1">
         <v>148756</v>
       </c>
-      <c r="V1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>143456</v>
       </c>
       <c r="B2">
         <v>153678</v>
       </c>
-      <c r="V2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>154567</v>
       </c>
       <c r="B3">
         <v>148756</v>
       </c>
-      <c r="V3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>153458</v>
       </c>
@@ -2112,27 +2082,18 @@
       <c r="D4">
         <v>176789</v>
       </c>
-      <c r="V4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>129878</v>
       </c>
-      <c r="V5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>159878</v>
       </c>
-      <c r="V6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>153678</v>
       </c>
@@ -2141,9 +2102,6 @@
       </c>
       <c r="C7">
         <v>232222</v>
-      </c>
-      <c r="V7" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +2115,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3AD190-58E2-44CA-8336-7E4B6D33CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD03CD3-6CF4-4620-A829-40040B4C38D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/TestDataOnlineOffline.xlsx
+++ b/Data/TestDataOnlineOffline.xlsx
@@ -20,20 +20,20 @@
     <sheet name="LawlinkCRO" sheetId="10" r:id="rId13"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId14"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1665640865" val="1060" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1665640865" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1665640865" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1665640865"/>
+      <pm:revision xmlns:pm="smNativeData" day="1672833765" val="1060" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1672833765" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1672833765" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1672833765"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>santest1</t>
   </si>
@@ -474,6 +474,111 @@
   </si>
   <si>
     <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209060-500A5AD750D2ABE35148CF3C98E12E5F/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209345-BC4E367F5B23E6DB9AF377F03EB37E5E/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209346-E532E7F671BEBCB8DD8EFC01DB929FD4/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209347-68A1545645D895F666D62C74DC1EF6E4/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209348-C11E64218AA397C6F013ADC7DE2F9D66/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209349-998C8E52E53D08339F5AFFF51F184396/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209350-73EBF2960DA05163725BC6FBC0B6638D/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209351-50E1ABB14F2B2C323F44CDAF45484C9B/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209353-6EC1B08648443DFEF1C84A75CED3245E/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209354-4A968533D7921933C1F6CDAC8686C371/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209355-B988917DB66D4CEDD794A2BC9410ED50/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209356-4BB336F693063D4E8B3B267C364044C8/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209357-F74AC347594448589CFCBD137F64A1EF/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209358-C7482A671B3EA99E2467177414589EE7/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209359-DE7C455CA9B14C5D85220F52540840FE/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209360-DDC30CBE34B8CD5E6E492D498339B682/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209361-B67DEA6207AD723C812CA99A99B1BD19/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209362-1F3266AF7B905F1391FC388C9AE112C9/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209363-C985F1829A613ED0094349938FD43448/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209364-5C03E3381108BDAD639F1B4F1DE2B394/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209365-19A37818A9509B514E3080FA22CEBCFF/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209366-0BED4C67F34B3A161F87DAD6704EFD49/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209367-7E602B4D3323F3C027C41C044D49B743/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209368-832AA7DF0EC11022AAB2EDE0C62DA91A/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209369-F432434AB691E6755154FEB34DAC83C3/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209370-9DD6694FCAD8EB61745CC3657920DEB2/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209371-3059318F035DBDF959B34A0924E9D7F7/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209372-B40BCE25F7CB7F3B8A71E29A6DBA6E32/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209373-95130B0CC00262FC8156730C0515C9EC/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209376-AEB15F6C9BF07863C491EEF4129856C3/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209377-1E39E2D931A1509C6497F244C1D147E3/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209378-0531244A6E7EDD2BC4EF15FC5B12B686/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209379-C7BF850AA08D05517521F34BC07B3342/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209380-51961514A88DB18477ADE2E68B753927/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209381-4E78D855A3A31DF9B494B3062BDD50A8/all.pdf</t>
+  </si>
+  <si>
+    <t>https://nonprod.lawlink.ie/LawLink/closing-pdf/209382-07205EFDA7C194DD7DD9F47CFFC6D500/all.pdf</t>
   </si>
 </sst>
 </file>
@@ -485,10 +590,10 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="DD\/MM\/YYYY"/>
   </numFmts>
   <fonts count="9">
@@ -499,7 +604,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -514,7 +619,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -530,7 +635,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -546,7 +651,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -563,7 +668,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -580,7 +685,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -597,7 +702,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -614,7 +719,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -631,7 +736,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1665640865" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1672833765" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -665,7 +770,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1665640865"/>
+          <pm:border xmlns:pm="smNativeData" id="1672833765"/>
         </ext>
       </extLst>
     </border>
@@ -692,10 +797,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1665640865" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1672833765" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1665640865" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1672833765" count="1">
         <pm:color name="Color 24" rgb="0563C1"/>
       </pm:colors>
     </ext>
@@ -965,14 +1070,14 @@
       <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.000000" customWidth="1"/>
-    <col min="2" max="2" width="20.553571" customWidth="1"/>
-    <col min="3" max="3" width="42.107143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.553571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.107143" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1136,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1040,16 +1145,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1066,79 +1171,79 @@
       <selection activeCell="V1" sqref="E1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="n">
+    <row r="1">
+      <c r="A1">
         <v>172234</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>165789</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>123108</v>
       </c>
       <c r="V1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="n">
+    <row r="2">
+      <c r="A2">
         <v>143456</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>153678</v>
       </c>
       <c r="V2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="n">
+    <row r="3">
+      <c r="A3">
         <v>154567</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>123108</v>
       </c>
       <c r="V3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="n">
+    <row r="4">
+      <c r="A4">
         <v>153458</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>139346</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>164567</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>176789</v>
       </c>
       <c r="V4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="n">
+    <row r="5">
+      <c r="A5">
         <v>129878</v>
       </c>
       <c r="V5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="n">
+    <row r="6">
+      <c r="A6">
         <v>159878</v>
       </c>
       <c r="V6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="n">
+    <row r="7">
+      <c r="A7">
         <v>567677</v>
       </c>
       <c r="V7" t="s">
@@ -1149,7 +1254,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1158,16 +1263,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1184,12 +1289,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1198,16 +1303,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1218,15 +1323,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="V1" sqref="I:V" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1499,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1403,16 +1508,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1429,38 +1534,38 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="15.553571" customWidth="1"/>
-    <col min="4" max="4" width="10.660714" customWidth="1"/>
-    <col min="5" max="5" width="21.107143" customWidth="1"/>
-    <col min="8" max="8" width="14.107143" customWidth="1"/>
-    <col min="9" max="9" width="19.107143" customWidth="1"/>
-    <col min="10" max="10" width="20.000000" customWidth="1"/>
-    <col min="13" max="13" width="14.660714" customWidth="1"/>
-    <col min="14" max="14" width="12.330357" customWidth="1"/>
-    <col min="15" max="15" width="22.660714" customWidth="1"/>
-    <col min="18" max="18" width="13.330357" customWidth="1"/>
-    <col min="19" max="19" width="15.330357" customWidth="1"/>
-    <col min="20" max="20" width="21.553571" customWidth="1"/>
-    <col min="23" max="23" width="13.437500" customWidth="1"/>
-    <col min="24" max="24" width="12.107143" customWidth="1"/>
-    <col min="25" max="25" width="22.000000" customWidth="1"/>
-    <col min="28" max="28" width="12.000000" customWidth="1"/>
-    <col min="29" max="29" width="13.553571" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="15.553571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.660714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.107143" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.107143" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.107143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.660714" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.330357" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="22.660714" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.330357" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="15.330357" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="21.553571" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="13.4375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="12.107143" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.553571" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="2">
         <v>22944</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="2">
         <v>25136</v>
       </c>
       <c r="E1" t="s">
@@ -1472,10 +1577,10 @@
       <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="2">
         <v>22944</v>
       </c>
-      <c r="I1" s="2" t="n">
+      <c r="I1" s="2">
         <v>26597</v>
       </c>
       <c r="J1" t="s">
@@ -1487,27 +1592,27 @@
       <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="n">
+      <c r="M1" s="2">
         <v>26597</v>
       </c>
-      <c r="N1" s="2" t="n">
+      <c r="N1" s="2">
         <v>28788</v>
       </c>
       <c r="O1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>26597</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>28788</v>
       </c>
       <c r="E2" t="s">
@@ -1519,10 +1624,10 @@
       <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>25136</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>28788</v>
       </c>
       <c r="J2" t="s">
@@ -1534,27 +1639,27 @@
       <c r="L2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="2">
         <v>22944</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="2">
         <v>25136</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>22944</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>30249</v>
       </c>
       <c r="E3" t="s">
@@ -1566,10 +1671,10 @@
       <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>22944</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>26597</v>
       </c>
       <c r="J3" t="s">
@@ -1581,10 +1686,10 @@
       <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="2">
         <v>19292</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="2">
         <v>25136</v>
       </c>
       <c r="O3" t="s">
@@ -1596,10 +1701,10 @@
       <c r="Q3" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="2">
         <v>19292</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="S3" s="2">
         <v>25136</v>
       </c>
       <c r="T3" t="s">
@@ -1611,10 +1716,10 @@
       <c r="V3" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="W3" s="2">
         <v>22944</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="X3" s="2">
         <v>26597</v>
       </c>
       <c r="Y3" t="s">
@@ -1626,27 +1731,27 @@
       <c r="AA3" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AB3" s="2">
         <v>19292</v>
       </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AC3" s="2">
         <v>25136</v>
       </c>
       <c r="AD3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>26597</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>32441</v>
       </c>
       <c r="E4" t="s">
@@ -1658,10 +1763,10 @@
       <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>22944</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>26597</v>
       </c>
       <c r="J4" t="s">
@@ -1673,10 +1778,10 @@
       <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="2">
         <v>26597</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="2">
         <v>32441</v>
       </c>
       <c r="O4" t="s">
@@ -1688,10 +1793,10 @@
       <c r="Q4" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="2">
         <v>26597</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="2">
         <v>32441</v>
       </c>
       <c r="T4" t="s">
@@ -1703,10 +1808,10 @@
       <c r="V4" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="2">
         <v>22944</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="2">
         <v>26597</v>
       </c>
       <c r="Y4" t="s">
@@ -1718,27 +1823,27 @@
       <c r="AA4" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AB4" s="2">
         <v>26597</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="2">
         <v>32441</v>
       </c>
       <c r="AD4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>26597</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>32441</v>
       </c>
       <c r="E5" t="s">
@@ -1750,10 +1855,10 @@
       <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>22944</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2">
         <v>26597</v>
       </c>
       <c r="J5" t="s">
@@ -1765,27 +1870,27 @@
       <c r="L5" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="2">
         <v>19292</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="2">
         <v>25136</v>
       </c>
       <c r="O5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>19292</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>25136</v>
       </c>
       <c r="E6" t="s">
@@ -1797,10 +1902,10 @@
       <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>19292</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>25136</v>
       </c>
       <c r="J6" t="s">
@@ -1812,27 +1917,27 @@
       <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="2">
         <v>19292</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="2">
         <v>25136</v>
       </c>
       <c r="O6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>26597</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>32441</v>
       </c>
       <c r="E7" t="s">
@@ -1844,10 +1949,10 @@
       <c r="G7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>19292</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>25136</v>
       </c>
       <c r="J7" t="s">
@@ -1859,10 +1964,10 @@
       <c r="L7" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="2">
         <v>26597</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="2">
         <v>32441</v>
       </c>
       <c r="O7" t="s">
@@ -1873,7 +1978,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1882,16 +1987,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1908,9 +2013,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +2023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +2031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1934,7 +2039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1942,7 +2047,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1950,7 +2055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1958,7 +2063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1966,7 +2071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1974,7 +2079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1986,7 +2091,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1995,16 +2100,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2021,14 +2126,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.330357" customWidth="1"/>
-    <col min="2" max="2" width="23.437500" customWidth="1"/>
-    <col min="3" max="3" width="26.553571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.330357" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.553571" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -2039,7 +2144,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" s="6" t="s">
         <v>67</v>
       </c>
@@ -2062,7 +2167,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2071,16 +2176,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2097,17 +2202,17 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.437500" customWidth="1"/>
-    <col min="2" max="2" width="29.107143" customWidth="1"/>
-    <col min="3" max="3" width="16.107143" customWidth="1"/>
-    <col min="4" max="4" width="28.553571" customWidth="1"/>
-    <col min="5" max="5" width="27.660714" customWidth="1"/>
-    <col min="6" max="6" width="22.107143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.4375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.107143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.107143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.553571" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.660714" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.107143" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -2121,7 +2226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2135,7 +2240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -2143,7 +2248,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2151,7 +2256,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -2171,7 +2276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -2185,7 +2290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -2203,7 +2308,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2212,16 +2317,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2238,19 +2343,19 @@
       <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.437500" customWidth="1"/>
-    <col min="2" max="2" width="29.107143" customWidth="1"/>
-    <col min="3" max="3" width="16.107143" customWidth="1"/>
-    <col min="4" max="4" width="23.000000" customWidth="1"/>
-    <col min="5" max="5" width="27.660714" customWidth="1"/>
-    <col min="6" max="6" width="22.107143" customWidth="1"/>
-    <col min="7" max="7" width="15.437500" customWidth="1"/>
-    <col min="8" max="8" width="28.000000" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.4375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.107143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.107143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.660714" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.107143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.4375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2276,7 +2381,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2290,7 +2395,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2316,7 +2421,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2330,7 +2435,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -2344,7 +2449,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -2358,7 +2463,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -2388,7 +2493,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2397,16 +2502,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2423,67 +2528,67 @@
       <selection activeCell="V1" sqref="E1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="n">
+    <row r="1">
+      <c r="A1">
         <v>172234</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>165789</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>148756</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="n">
+    <row r="2">
+      <c r="A2">
         <v>143456</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>153678</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="n">
+    <row r="3">
+      <c r="A3">
         <v>154567</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>148756</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="n">
+    <row r="4">
+      <c r="A4">
         <v>153458</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>139346</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>164567</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>176789</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="n">
+    <row r="5">
+      <c r="A5">
         <v>129878</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="n">
+    <row r="6">
+      <c r="A6">
         <v>159878</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
+    <row r="7">
+      <c r="A7">
         <v>153678</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1715</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>232222</v>
       </c>
     </row>
@@ -2491,7 +2596,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2500,16 +2605,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2526,18 +2631,18 @@
       <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15.40" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.437500" customWidth="1"/>
-    <col min="2" max="2" width="29.107143" customWidth="1"/>
-    <col min="3" max="3" width="20.883929" customWidth="1"/>
-    <col min="4" max="4" width="23.000000" customWidth="1"/>
-    <col min="5" max="5" width="27.660714" customWidth="1"/>
-    <col min="6" max="6" width="22.107143" customWidth="1"/>
-    <col min="7" max="7" width="21.660714" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.4375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.107143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.883929" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.660714" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.107143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.660714" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2563,7 +2668,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2577,7 +2682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2603,7 +2708,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2617,7 +2722,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -2631,7 +2736,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -2645,7 +2750,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -2675,7 +2780,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1665640865" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1672833765" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2684,16 +2789,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1665640865" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1665640865" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1672833765" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1672833765" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1665640865" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1672833765" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
